--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2508042.847274949</v>
+        <v>-2510779.160296184</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>318.6051020511898</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>62.17252794525088</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.13751109273352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.1925113716249</v>
+        <v>42.38402948901932</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>266.2411969918101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>138.252930350658</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>107.6549457192671</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>99.71081971393789</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>24.81062044022658</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>12.83538657435523</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>137.6441564454819</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.02777015007112</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>220.9731342426603</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>133.15991070832</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>68.82097448421588</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>105.9893107373038</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>80.11763046889914</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>54.10799870228453</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,13 +2767,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652572</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972051</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,13 +4189,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1101.768613746537</v>
+        <v>1211.708328559738</v>
       </c>
       <c r="C2" t="n">
-        <v>779.9452783412949</v>
+        <v>842.7458116193261</v>
       </c>
       <c r="D2" t="n">
-        <v>421.6795797345444</v>
+        <v>484.4801130125756</v>
       </c>
       <c r="E2" t="n">
-        <v>421.6795797345444</v>
+        <v>484.4801130125756</v>
       </c>
       <c r="F2" t="n">
         <v>421.6795797345444</v>
@@ -4325,16 +4325,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1488.368453810659</v>
+        <v>1211.708328559738</v>
       </c>
     </row>
     <row r="3">
@@ -4395,16 +4395,16 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4413,19 +4413,19 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844939</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>1570.798573522794</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>1570.798573522794</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>1420.681934110458</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1272.768840528065</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880302</v>
+        <v>2084.676359389004</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510696</v>
+        <v>1795.259189352043</v>
       </c>
       <c r="X4" t="n">
-        <v>472.6531669530523</v>
+        <v>1795.259189352043</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6708322342392</v>
+        <v>1752.447038353034</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1511.231752124758</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="C5" t="n">
-        <v>1142.269235184346</v>
+        <v>1026.521463725097</v>
       </c>
       <c r="D5" t="n">
-        <v>784.0035365775955</v>
+        <v>668.2557651183465</v>
       </c>
       <c r="E5" t="n">
-        <v>398.2152839793512</v>
+        <v>668.2557651183465</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>257.269860328739</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,19 +4562,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188879</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.831592188879</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="Y5" t="n">
-        <v>1897.831592188879</v>
+        <v>1395.483980665509</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.664237045805</v>
+        <v>871.5518826881195</v>
       </c>
       <c r="C7" t="n">
-        <v>308.7280541178981</v>
+        <v>871.5518826881195</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>721.4352432757837</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288652</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827656</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>477.664237045805</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>477.664237045805</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.664237045805</v>
+        <v>871.5518826881195</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>519.5572140912814</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>519.5572140912814</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>161.2915154845309</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2549.374291456362</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2549.374291456362</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2295.793230720542</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.730343376971</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.730343376971</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.264585115892</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.12525314008</v>
+        <v>906.1570541554031</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360655</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1497.411618614415</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1497.411618614415</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1497.411618614415</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1242.727130408528</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.727130408528</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>918.7469765594642</v>
       </c>
     </row>
     <row r="11">
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2129.60328892373</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603201</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1021.293348608258</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>852.3571656803514</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>702.2405262680156</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>554.3274326856225</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.941813438498</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2183.181349771631</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115829</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909942</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589157</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E25" t="n">
         <v>533.5814564942654</v>
@@ -6136,22 +6136,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,25 +6169,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
@@ -6379,7 +6379,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6388,7 +6388,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6427,7 +6427,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.0944824954149</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6789,10 +6789,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6844,7 +6844,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6865,16 +6865,16 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,16 +7114,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,43 +7418,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,16 +7546,16 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7801,52 +7801,52 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>231.2582814363242</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>294.8344935184731</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>114.3555089013346</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>199.7516311504061</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>30.36925650589473</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>46.66778971981773</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>344.7035177964606</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.6944690892038</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>55.5930032710373</v>
       </c>
     </row>
     <row r="5">
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>27.76311574357382</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.24553961896822</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>76.60007353871536</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>137.2878198583891</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>232.4149996343065</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -26317,43 +26317,43 @@
         <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>20178.66499225016</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>20178.66499225015</v>
       </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
-      </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="I2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="K2" t="n">
-        <v>20526.04424660709</v>
-      </c>
       <c r="L2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26399,13 +26399,13 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27111.73467492338</v>
+        <v>27111.7346749234</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719708</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26433,31 +26433,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
-        <v>15498.22772481321</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="J4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15498.22772481316</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15498.22772481317</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15498.22772481312</v>
+      </c>
+      <c r="P4" t="n">
         <v>15498.22772481315</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15498.22772481315</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15498.22772481314</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481313</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481313</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481315</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15498.22772481314</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218918.214364326</v>
+        <v>-1219382.511156351</v>
       </c>
       <c r="C6" t="n">
         <v>-205525.591739982</v>
@@ -26528,40 +26528,40 @@
         <v>-205525.591739982</v>
       </c>
       <c r="E6" t="n">
-        <v>-595936.6749179224</v>
+        <v>-595971.4128433582</v>
       </c>
       <c r="F6" t="n">
-        <v>-88451.23329337663</v>
+        <v>-88485.97121881232</v>
       </c>
       <c r="G6" t="n">
-        <v>-88451.23329337662</v>
+        <v>-88485.97121881232</v>
       </c>
       <c r="H6" t="n">
-        <v>-88451.23329337662</v>
+        <v>-88485.97121881235</v>
       </c>
       <c r="I6" t="n">
-        <v>-117564.0173257533</v>
+        <v>-117564.0173257532</v>
       </c>
       <c r="J6" t="n">
         <v>-265741.4771421039</v>
       </c>
       <c r="K6" t="n">
-        <v>-98136.29933212145</v>
+        <v>-98136.29933212143</v>
       </c>
       <c r="L6" t="n">
-        <v>-98136.29933212145</v>
+        <v>-98136.29933212146</v>
       </c>
       <c r="M6" t="n">
-        <v>-230743.5930610481</v>
+        <v>-230743.5930610482</v>
       </c>
       <c r="N6" t="n">
         <v>-117564.0173257532</v>
       </c>
       <c r="O6" t="n">
-        <v>-98136.29933212145</v>
+        <v>-98136.29933212142</v>
       </c>
       <c r="P6" t="n">
-        <v>-98136.29933212143</v>
+        <v>-98136.29933212149</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.3921419804699</v>
+        <v>120.6076205920382</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>140.6348487499013</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>273.294772422296</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>40.96052729894522</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>46.72314293263128</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>357.1197496320352</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>110.6168288244391</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>57.01830391625552</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.5568832020237</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107751</v>
+        <v>520.3372160854087</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32813,10 +32813,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34781,10 +34781,10 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>528.9386420741744</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34793,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>544.5140226420053</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>481.2868411833751</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>418.4229873015965</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>566.6829634324466</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>280.048785629427</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663306</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36522,7 +36522,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980851</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
